--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/a-Mc5r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/a-Mc5r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Mc5r</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.215186</v>
+        <v>0.045339</v>
       </c>
       <c r="H2">
-        <v>0.645558</v>
+        <v>0.136017</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9190126666666667</v>
+        <v>1.677453</v>
       </c>
       <c r="N2">
-        <v>2.757038</v>
+        <v>5.032359</v>
       </c>
       <c r="O2">
-        <v>0.1549790623755428</v>
+        <v>0.2543757648546719</v>
       </c>
       <c r="P2">
-        <v>0.1549790623755428</v>
+        <v>0.2543757648546719</v>
       </c>
       <c r="Q2">
-        <v>0.1977586596893333</v>
+        <v>0.07605404156699999</v>
       </c>
       <c r="R2">
-        <v>1.779827937204</v>
+        <v>0.684486374103</v>
       </c>
       <c r="S2">
-        <v>0.1549790623755428</v>
+        <v>0.04426885251989626</v>
       </c>
       <c r="T2">
-        <v>0.1549790623755428</v>
+        <v>0.04426885251989626</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.215186</v>
+        <v>0.045339</v>
       </c>
       <c r="H3">
-        <v>0.645558</v>
+        <v>0.136017</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.101463</v>
       </c>
       <c r="O3">
-        <v>0.6240372191956658</v>
+        <v>0.5611569328879042</v>
       </c>
       <c r="P3">
-        <v>0.6240372191956658</v>
+        <v>0.5611569328879042</v>
       </c>
       <c r="Q3">
-        <v>0.7962931390393332</v>
+        <v>0.167776410319</v>
       </c>
       <c r="R3">
-        <v>7.166638251353999</v>
+        <v>1.509987692871</v>
       </c>
       <c r="S3">
-        <v>0.6240372191956658</v>
+        <v>0.09765778401383625</v>
       </c>
       <c r="T3">
-        <v>0.6240372191956658</v>
+        <v>0.09765778401383626</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.215186</v>
+        <v>0.045339</v>
       </c>
       <c r="H4">
-        <v>0.645558</v>
+        <v>0.136017</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.208722</v>
+        <v>1.148238333333333</v>
       </c>
       <c r="N4">
-        <v>3.626166</v>
+        <v>3.444715</v>
       </c>
       <c r="O4">
-        <v>0.2038346249482497</v>
+        <v>0.174123510034034</v>
       </c>
       <c r="P4">
-        <v>0.2038346249482497</v>
+        <v>0.174123510034034</v>
       </c>
       <c r="Q4">
-        <v>0.260100052292</v>
+        <v>0.05205997779499999</v>
       </c>
       <c r="R4">
-        <v>2.340900470628</v>
+        <v>0.4685398001549999</v>
       </c>
       <c r="S4">
-        <v>0.2038346249482497</v>
+        <v>0.03030260367117577</v>
       </c>
       <c r="T4">
-        <v>0.2038346249482497</v>
+        <v>0.03030260367117577</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.215186</v>
+        <v>0.045339</v>
       </c>
       <c r="H5">
-        <v>0.645558</v>
+        <v>0.136017</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,276 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1016926666666667</v>
+        <v>0.06821100000000001</v>
       </c>
       <c r="N5">
-        <v>0.305078</v>
+        <v>0.204633</v>
       </c>
       <c r="O5">
-        <v>0.01714909348054174</v>
+        <v>0.01034379222338988</v>
       </c>
       <c r="P5">
-        <v>0.01714909348054174</v>
+        <v>0.01034379222338988</v>
       </c>
       <c r="Q5">
-        <v>0.02188283816933333</v>
+        <v>0.003092618529</v>
       </c>
       <c r="R5">
-        <v>0.196945543524</v>
+        <v>0.027833566761</v>
       </c>
       <c r="S5">
-        <v>0.01714909348054174</v>
+        <v>0.001800123579757313</v>
       </c>
       <c r="T5">
-        <v>0.01714909348054174</v>
+        <v>0.001800123579757313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.215186</v>
+      </c>
+      <c r="H6">
+        <v>0.645558</v>
+      </c>
+      <c r="I6">
+        <v>0.8259706362153344</v>
+      </c>
+      <c r="J6">
+        <v>0.8259706362153345</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.677453</v>
+      </c>
+      <c r="N6">
+        <v>5.032359</v>
+      </c>
+      <c r="O6">
+        <v>0.2543757648546719</v>
+      </c>
+      <c r="P6">
+        <v>0.2543757648546719</v>
+      </c>
+      <c r="Q6">
+        <v>0.3609644012579999</v>
+      </c>
+      <c r="R6">
+        <v>3.248679611321999</v>
+      </c>
+      <c r="S6">
+        <v>0.2101069123347757</v>
+      </c>
+      <c r="T6">
+        <v>0.2101069123347757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.215186</v>
+      </c>
+      <c r="H7">
+        <v>0.645558</v>
+      </c>
+      <c r="I7">
+        <v>0.8259706362153344</v>
+      </c>
+      <c r="J7">
+        <v>0.8259706362153345</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.700487666666666</v>
+      </c>
+      <c r="N7">
+        <v>11.101463</v>
+      </c>
+      <c r="O7">
+        <v>0.5611569328879042</v>
+      </c>
+      <c r="P7">
+        <v>0.5611569328879042</v>
+      </c>
+      <c r="Q7">
+        <v>0.7962931390393332</v>
+      </c>
+      <c r="R7">
+        <v>7.166638251353999</v>
+      </c>
+      <c r="S7">
+        <v>0.463499148874068</v>
+      </c>
+      <c r="T7">
+        <v>0.4634991488740681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.215186</v>
+      </c>
+      <c r="H8">
+        <v>0.645558</v>
+      </c>
+      <c r="I8">
+        <v>0.8259706362153344</v>
+      </c>
+      <c r="J8">
+        <v>0.8259706362153345</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.148238333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.444715</v>
+      </c>
+      <c r="O8">
+        <v>0.174123510034034</v>
+      </c>
+      <c r="P8">
+        <v>0.174123510034034</v>
+      </c>
+      <c r="Q8">
+        <v>0.2470848139966666</v>
+      </c>
+      <c r="R8">
+        <v>2.223763325969999</v>
+      </c>
+      <c r="S8">
+        <v>0.1438209063628582</v>
+      </c>
+      <c r="T8">
+        <v>0.1438209063628582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.215186</v>
+      </c>
+      <c r="H9">
+        <v>0.645558</v>
+      </c>
+      <c r="I9">
+        <v>0.8259706362153344</v>
+      </c>
+      <c r="J9">
+        <v>0.8259706362153345</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.06821100000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.204633</v>
+      </c>
+      <c r="O9">
+        <v>0.01034379222338988</v>
+      </c>
+      <c r="P9">
+        <v>0.01034379222338988</v>
+      </c>
+      <c r="Q9">
+        <v>0.014678052246</v>
+      </c>
+      <c r="R9">
+        <v>0.132102470214</v>
+      </c>
+      <c r="S9">
+        <v>0.008543668643632572</v>
+      </c>
+      <c r="T9">
+        <v>0.00854366864363257</v>
       </c>
     </row>
   </sheetData>
